--- a/Grupo y link github.xlsx
+++ b/Grupo y link github.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nachi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7C74AE-9F6F-43B4-B74F-C4240167B2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45294239-5B0F-4E9A-A35D-333CECCDAEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB75DAD0-5A7E-4FD9-8750-010779140108}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>sede</t>
   </si>
@@ -75,6 +75,21 @@
   </si>
   <si>
     <t>PTY4614-002D</t>
+  </si>
+  <si>
+    <t>Diego Encina Poblete</t>
+  </si>
+  <si>
+    <t>21.092.939-8</t>
+  </si>
+  <si>
+    <t>21.510.487-7</t>
+  </si>
+  <si>
+    <t>21.126.460-8</t>
+  </si>
+  <si>
+    <t>Felipe Ignacio Tapia Diaz</t>
   </si>
 </sst>
 </file>
@@ -521,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A69A014-F2D7-4AB1-B9EF-0139B87CC8EA}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,8 +586,8 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5">
-        <v>215104877</v>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -581,6 +596,52 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Grupo y link github.xlsx
+++ b/Grupo y link github.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nachi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felip\Escritorio\Capstone\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45294239-5B0F-4E9A-A35D-333CECCDAEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7698FC-8651-4CA4-878C-191E07BAEEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB75DAD0-5A7E-4FD9-8750-010779140108}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CB75DAD0-5A7E-4FD9-8750-010779140108}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -105,18 +105,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -133,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -157,17 +157,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -183,24 +172,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{CE0638DF-DF68-4A46-A27B-98C40F9E5C81}"/>
@@ -539,7 +525,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,29 +536,29 @@
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -586,16 +572,16 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -609,16 +595,16 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -632,16 +618,16 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
